--- a/servers/dist/game/data/scripts/quests/QuestsToDo.xlsx
+++ b/servers/dist/game/data/scripts/quests/QuestsToDo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="782">
   <si>
     <t>Parcel Delivery</t>
   </si>
@@ -2240,9 +2240,6 @@
   </si>
   <si>
     <t>https://l2wiki.com/Crossing_Fate</t>
-  </si>
-  <si>
-    <t>https://l2wiki.com/Strange_Things_Afoot_in_the_Valley</t>
   </si>
   <si>
     <t>https://l2wiki.com/Reconnaissance_at_Dragon_Valley</t>
@@ -2758,7 +2755,7 @@
         <v>529</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
@@ -2769,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
         <v>530</v>
@@ -2784,7 +2781,7 @@
       </c>
       <c r="D3" s="5">
         <f>(D2*100)/529</f>
-        <v>52.551984877126657</v>
+        <v>52.741020793950852</v>
       </c>
       <c r="E3" t="s">
         <v>531</v>
@@ -7320,14 +7317,11 @@
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="A491" s="1">
+      <c r="A491" s="3">
         <v>10799</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B491" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C491" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -7338,7 +7332,7 @@
         <v>489</v>
       </c>
       <c r="C492" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7349,7 +7343,7 @@
         <v>490</v>
       </c>
       <c r="C493" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7360,7 +7354,7 @@
         <v>491</v>
       </c>
       <c r="C494" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -7371,7 +7365,7 @@
         <v>492</v>
       </c>
       <c r="C495" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -7382,7 +7376,7 @@
         <v>493</v>
       </c>
       <c r="C496" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7393,7 +7387,7 @@
         <v>494</v>
       </c>
       <c r="C497" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -7404,7 +7398,7 @@
         <v>495</v>
       </c>
       <c r="C498" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -7415,7 +7409,7 @@
         <v>496</v>
       </c>
       <c r="C499" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -7426,7 +7420,7 @@
         <v>497</v>
       </c>
       <c r="C500" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -7437,7 +7431,7 @@
         <v>498</v>
       </c>
       <c r="C501" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -7448,7 +7442,7 @@
         <v>499</v>
       </c>
       <c r="C502" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7459,7 +7453,7 @@
         <v>500</v>
       </c>
       <c r="C503" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -7470,7 +7464,7 @@
         <v>501</v>
       </c>
       <c r="C504" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -7481,7 +7475,7 @@
         <v>502</v>
       </c>
       <c r="C505" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7492,7 +7486,7 @@
         <v>503</v>
       </c>
       <c r="C506" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -7503,7 +7497,7 @@
         <v>504</v>
       </c>
       <c r="C507" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7514,7 +7508,7 @@
         <v>505</v>
       </c>
       <c r="C508" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7525,7 +7519,7 @@
         <v>506</v>
       </c>
       <c r="C509" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -7536,7 +7530,7 @@
         <v>507</v>
       </c>
       <c r="C510" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -7547,7 +7541,7 @@
         <v>508</v>
       </c>
       <c r="C511" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -7558,7 +7552,7 @@
         <v>509</v>
       </c>
       <c r="C512" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -7569,7 +7563,7 @@
         <v>510</v>
       </c>
       <c r="C513" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7580,7 +7574,7 @@
         <v>511</v>
       </c>
       <c r="C514" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -7591,7 +7585,7 @@
         <v>512</v>
       </c>
       <c r="C515" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -7602,7 +7596,7 @@
         <v>513</v>
       </c>
       <c r="C516" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -7613,7 +7607,7 @@
         <v>514</v>
       </c>
       <c r="C517" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -7624,7 +7618,7 @@
         <v>515</v>
       </c>
       <c r="C518" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -7635,7 +7629,7 @@
         <v>516</v>
       </c>
       <c r="C519" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -7646,7 +7640,7 @@
         <v>517</v>
       </c>
       <c r="C520" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -7657,7 +7651,7 @@
         <v>518</v>
       </c>
       <c r="C521" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -7668,7 +7662,7 @@
         <v>519</v>
       </c>
       <c r="C522" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -7679,7 +7673,7 @@
         <v>520</v>
       </c>
       <c r="C523" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -7690,7 +7684,7 @@
         <v>521</v>
       </c>
       <c r="C524" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -7701,7 +7695,7 @@
         <v>522</v>
       </c>
       <c r="C525" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -7712,7 +7706,7 @@
         <v>523</v>
       </c>
       <c r="C526" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -7723,7 +7717,7 @@
         <v>524</v>
       </c>
       <c r="C527" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -7734,7 +7728,7 @@
         <v>525</v>
       </c>
       <c r="C528" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -7745,7 +7739,7 @@
         <v>526</v>
       </c>
       <c r="C529" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -7756,7 +7750,7 @@
         <v>527</v>
       </c>
       <c r="C530" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
